--- a/src/models/data/re_examination.xlsx
+++ b/src/models/data/re_examination.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FFB6F3-4E36-4813-BBCD-69D7A216319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C468B748-1B83-448A-BCBD-E3CF9663386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -265,6 +276,99 @@
   </si>
   <si>
     <t>is_remind</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>2023-04-16T03:42:46.836Z</t>
+  </si>
+  <si>
+    <t>2023-04-16T17:39:00.184Z</t>
+  </si>
+  <si>
+    <t>2023-04-15T06:41:48.371Z</t>
+  </si>
+  <si>
+    <t>2023-04-20T12:35:38.970Z</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:49:56.026Z</t>
+  </si>
+  <si>
+    <t>2023-04-20T15:33:32.873Z</t>
+  </si>
+  <si>
+    <t>2023-04-27T17:38:49.996Z</t>
+  </si>
+  <si>
+    <t>2023-04-21T01:17:39.404Z</t>
+  </si>
+  <si>
+    <t>2023-04-24T02:45:36.900Z</t>
+  </si>
+  <si>
+    <t>2023-04-21T22:05:53.134Z</t>
+  </si>
+  <si>
+    <t>2023-04-23T05:50:33.673Z</t>
+  </si>
+  <si>
+    <t>2023-04-22T06:35:34.274Z</t>
+  </si>
+  <si>
+    <t>2023-04-28T06:11:34.174Z</t>
+  </si>
+  <si>
+    <t>2023-05-01T02:48:49.009Z</t>
+  </si>
+  <si>
+    <t>2023-04-28T07:29:25.785Z</t>
+  </si>
+  <si>
+    <t>2023-04-26T10:52:05.915Z</t>
+  </si>
+  <si>
+    <t>2023-05-07T16:06:05.180Z</t>
+  </si>
+  <si>
+    <t>2023-05-02T23:32:48.918Z</t>
+  </si>
+  <si>
+    <t>2023-05-02T02:18:11.393Z</t>
+  </si>
+  <si>
+    <t>2023-05-06T18:22:45.620Z</t>
+  </si>
+  <si>
+    <t>2023-05-09T08:22:07.674Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T20:26:24.705Z</t>
+  </si>
+  <si>
+    <t>2023-05-11T08:49:28.642Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T07:50:49.807Z</t>
+  </si>
+  <si>
+    <t>2023-05-09T12:30:46.024Z</t>
+  </si>
+  <si>
+    <t>2023-05-12T19:30:19.866Z</t>
+  </si>
+  <si>
+    <t>2023-05-09T14:25:42.860Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T09:09:48.198Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T19:35:51.139Z</t>
   </si>
 </sst>
 </file>
@@ -600,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +719,7 @@
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,8 +741,14 @@
       <c r="G1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -660,8 +770,14 @@
       <c r="G2" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -677,8 +793,14 @@
       <c r="E3" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -694,8 +816,14 @@
       <c r="E4" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -711,8 +839,14 @@
       <c r="E5" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -734,8 +868,14 @@
       <c r="G6" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -751,8 +891,14 @@
       <c r="E7" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -768,8 +914,14 @@
       <c r="E8" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -785,8 +937,14 @@
       <c r="E9" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -802,8 +960,14 @@
       <c r="E10" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -819,8 +983,14 @@
       <c r="E11" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -836,8 +1006,14 @@
       <c r="E12" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -853,8 +1029,14 @@
       <c r="E13" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -870,8 +1052,14 @@
       <c r="E14" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -893,8 +1081,14 @@
       <c r="G15" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -910,8 +1104,14 @@
       <c r="E16" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -927,8 +1127,14 @@
       <c r="E17" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -944,8 +1150,14 @@
       <c r="E18" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -967,8 +1179,14 @@
       <c r="G19" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -984,8 +1202,14 @@
       <c r="E20" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1001,8 +1225,14 @@
       <c r="E21" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1018,8 +1248,14 @@
       <c r="E22" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1035,8 +1271,14 @@
       <c r="E23" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1052,8 +1294,14 @@
       <c r="E24" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1069,8 +1317,14 @@
       <c r="E25" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1086,8 +1340,14 @@
       <c r="E26" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1103,8 +1363,14 @@
       <c r="E27" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -1120,8 +1386,14 @@
       <c r="E28" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -1137,8 +1409,14 @@
       <c r="E29" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -1153,6 +1431,12 @@
       </c>
       <c r="E30" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
